--- a/Notas/Participacion.xlsx
+++ b/Notas/Participacion.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -302,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,7 +337,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,6 +559,7 @@
     <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -603,7 +604,10 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="3">
+        <f>ROUNDUP((SUM(D2:F2)-MIN(D2:F2))/2,0)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -619,12 +623,15 @@
         <v>14</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G14" si="0">ROUNDUP((SUM(D3:F3)-MIN(D3:F3))/2,0)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -640,12 +647,15 @@
         <v>16</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -661,12 +671,15 @@
         <v>8</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -687,7 +700,10 @@
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -703,12 +719,15 @@
         <v>18</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -724,12 +743,15 @@
         <v>10</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -745,12 +767,15 @@
         <v>14</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -766,12 +791,15 @@
         <v>16</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -787,12 +815,15 @@
         <v>16</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -808,12 +839,15 @@
         <v>16</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -829,12 +863,15 @@
         <v>16</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -850,12 +887,15 @@
         <v>14</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="B2:E11">

--- a/Notas/Participacion.xlsx
+++ b/Notas/Participacion.xlsx
@@ -549,7 +549,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,14 +599,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
       <c r="G2" s="3">
         <f>ROUNDUP((SUM(D2:F2)-MIN(D2:F2))/2,0)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -695,14 +695,14 @@
         <v>12</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">

--- a/Notas/Participacion.xlsx
+++ b/Notas/Participacion.xlsx
@@ -549,7 +549,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
